--- a/data.xlsx
+++ b/data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YairD/Desktop/cannabis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YairD/Documents/pythonProject1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5327D0DD-EDF9-7D4C-A183-4B48BDB72094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1FC5D-679B-7B43-96AC-A92F8342230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="35460" windowHeight="20860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="35460" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="binary_patients" sheetId="7" r:id="rId1"/>
-    <sheet name="מטופלים" sheetId="6" r:id="rId2"/>
-    <sheet name="feedbacks" sheetId="8" r:id="rId3"/>
+    <sheet name="feedbacks" sheetId="8" r:id="rId2"/>
+    <sheet name="מטופלים" sheetId="6" r:id="rId3"/>
     <sheet name="חוות דעת" sheetId="4" r:id="rId4"/>
     <sheet name="רכישות" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="254">
   <si>
     <t>Product Name</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>Calmness</t>
+  </si>
+  <si>
+    <t>KEY COLUMNS (UNIQUE)</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -967,8 +970,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,8 +1022,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1072,11 +1101,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1146,9 +1278,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,6 +1286,57 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,748 +1553,702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE273AA-7E28-0845-BD30-D2C106C830A3}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" style="29" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" style="29" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" style="28" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="56" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:23" ht="56" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="50" t="s">
         <v>232</v>
       </c>
+      <c r="D1" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="E1" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="29">
+        <v>4</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29">
+        <v>1</v>
+      </c>
+      <c r="K2" s="29">
+        <v>0</v>
+      </c>
+      <c r="L2" s="29">
+        <v>1</v>
+      </c>
+      <c r="M2" s="29">
+        <v>0</v>
+      </c>
+      <c r="N2" s="29">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29">
+        <v>0</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29">
+        <v>1</v>
+      </c>
+      <c r="R2" s="29">
+        <v>0</v>
+      </c>
+      <c r="S2" s="29">
+        <v>0</v>
+      </c>
+      <c r="T2" s="29">
+        <v>0</v>
+      </c>
+      <c r="U2" s="29">
+        <v>1</v>
+      </c>
+      <c r="V2" s="29">
+        <v>0</v>
+      </c>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>214</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+    </row>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>39</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>22</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
         <v>79</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="30">
-        <v>4</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C2" s="30">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-      <c r="G2" s="30">
-        <v>0</v>
-      </c>
-      <c r="H2" s="30">
-        <v>0</v>
-      </c>
-      <c r="I2" s="30">
-        <v>0</v>
-      </c>
-      <c r="J2" s="30">
-        <v>0</v>
-      </c>
-      <c r="K2" s="30">
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>44</v>
+      </c>
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="L2" s="30">
-        <v>0</v>
-      </c>
-      <c r="M2" s="30">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
         <v>1</v>
       </c>
-      <c r="N2" s="30">
-        <v>0</v>
-      </c>
-      <c r="O2" s="30">
-        <v>0</v>
-      </c>
-      <c r="P2" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30">
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+    </row>
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="29">
+        <v>32</v>
+      </c>
+      <c r="B9" s="29">
         <v>1</v>
       </c>
-      <c r="S2" s="30">
-        <v>0</v>
-      </c>
-      <c r="T2" s="30">
-        <v>0</v>
-      </c>
-      <c r="U2" s="30">
-        <v>0</v>
-      </c>
-      <c r="V2" s="30">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
         <v>1</v>
       </c>
-      <c r="W2" s="30">
-        <v>0</v>
-      </c>
-      <c r="X2" s="30"/>
-    </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
-        <v>5</v>
-      </c>
-      <c r="B3" s="30">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+    </row>
+    <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>15</v>
+      </c>
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="30">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-    </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
-        <v>214</v>
-      </c>
-      <c r="B4" s="30">
-        <v>0</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+    </row>
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>21</v>
+      </c>
+      <c r="B11" s="29">
         <v>1</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
         <v>1</v>
       </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-    </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
-        <v>39</v>
-      </c>
-      <c r="B5" s="30">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+    </row>
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>20</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
+      <c r="I12" s="29">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+    </row>
+    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>55</v>
+      </c>
+      <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-    </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
-        <v>22</v>
-      </c>
-      <c r="B6" s="30">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29">
         <v>1</v>
       </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30">
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="29">
+        <v>218</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29">
         <v>1</v>
       </c>
-      <c r="F6" s="30">
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-    </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
-        <v>79</v>
-      </c>
-      <c r="B7" s="30">
-        <v>0</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+    </row>
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="29">
+        <v>11</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>1</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-    </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
-        <v>44</v>
-      </c>
-      <c r="B8" s="30">
-        <v>0</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>1</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-    </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
-        <v>32</v>
-      </c>
-      <c r="B9" s="30">
-        <v>0</v>
-      </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
-        <v>1</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-    </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
-        <v>15</v>
-      </c>
-      <c r="B10" s="30">
-        <v>0</v>
-      </c>
-      <c r="C10" s="30">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-    </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="30">
-        <v>21</v>
-      </c>
-      <c r="B11" s="30">
-        <v>0</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>1</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-    </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="30">
-        <v>20</v>
-      </c>
-      <c r="B12" s="30">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>1</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-    </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
-        <v>55</v>
-      </c>
-      <c r="B13" s="30">
-        <v>0</v>
-      </c>
-      <c r="C13" s="30">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <v>1</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-    </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="30">
-        <v>218</v>
-      </c>
-      <c r="B14" s="30">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <v>0</v>
-      </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-    </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="30">
-        <v>11</v>
-      </c>
-      <c r="B15" s="30">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <v>1</v>
-      </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2122,629 +2256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:R15"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="13">
-        <v>35.421917808219177</v>
-      </c>
-      <c r="E2" s="13">
-        <v>70</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="15">
-        <v>50</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="15">
-        <v>20</v>
-      </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="13">
-        <v>29.460273972602739</v>
-      </c>
-      <c r="E3" s="13">
-        <v>60</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="13">
-        <v>40.698630136986303</v>
-      </c>
-      <c r="E4" s="13">
-        <v>40</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="13">
-        <v>40.290410958904111</v>
-      </c>
-      <c r="E5" s="13">
-        <v>50</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13">
-        <v>35.07123287671233</v>
-      </c>
-      <c r="E6" s="13">
-        <v>50</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13">
-        <v>32.241095890410961</v>
-      </c>
-      <c r="E7" s="13">
-        <v>40</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="13">
-        <v>30.090410958904108</v>
-      </c>
-      <c r="E8" s="13">
-        <v>50</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="13">
-        <v>28.769863013698629</v>
-      </c>
-      <c r="E9" s="13">
-        <v>60</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13">
-        <v>27.353424657534248</v>
-      </c>
-      <c r="E10" s="13">
-        <v>50</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="13">
-        <v>47.723287671232875</v>
-      </c>
-      <c r="E11" s="13">
-        <v>50</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="13">
-        <v>34.175342465753424</v>
-      </c>
-      <c r="E12" s="13">
-        <v>50</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="13">
-        <v>65.824657534246569</v>
-      </c>
-      <c r="E13" s="13">
-        <v>50</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13">
-        <v>44.887671232876713</v>
-      </c>
-      <c r="E14" s="13">
-        <v>40</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="13">
-        <v>48.753424657534246</v>
-      </c>
-      <c r="E15" s="13">
-        <v>40</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A121D-829A-D14B-8631-A91B40FC0691}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2768,290 +2287,237 @@
     <col min="20" max="20" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:20" s="28" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B2" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C2" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D2" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E2" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S2" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T2" s="26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35">
         <v>4</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B3" s="36">
         <v>44896</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="46">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E3" s="47">
         <v>3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
         <v>4</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B4" s="38">
         <v>44725</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="47">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="s">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B5" s="38">
         <v>44733</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="36">
         <v>44718</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="46">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>44844</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E6" s="47">
         <v>5</v>
       </c>
       <c r="F6" s="6">
@@ -3064,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -3097,235 +2563,238 @@
         <v>0</v>
       </c>
       <c r="T6" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39">
+        <v>44844</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="46">
+        <v>5</v>
+      </c>
+      <c r="E7" s="47">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B8" s="38">
         <v>44893</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="46">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="47">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6" t="s">
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B9" s="38">
         <v>44956</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="46">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="47">
         <v>2</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B10" s="39">
         <v>44624</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="46">
         <v>5</v>
       </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>20</v>
-      </c>
-      <c r="B10" s="25">
-        <v>44607</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E10" s="47">
         <v>5</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
       </c>
       <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="35">
+        <v>20</v>
+      </c>
+      <c r="B11" s="38">
+        <v>44607</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="46">
+        <v>5</v>
+      </c>
+      <c r="E11" s="47">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
         <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>20</v>
-      </c>
-      <c r="B11" s="10">
-        <v>44715</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -3340,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -3366,712 +2835,709 @@
       <c r="S11" s="6">
         <v>0</v>
       </c>
-      <c r="T11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="35">
+        <v>20</v>
+      </c>
+      <c r="B12" s="36">
+        <v>44715</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="46">
+        <v>5</v>
+      </c>
+      <c r="E12" s="47">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35">
         <v>20</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B13" s="36">
         <v>44869</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="46">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="47">
         <v>2</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35">
         <v>20</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B14" s="36">
         <v>44869</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="46">
         <v>4</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35">
         <v>20</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B15" s="38">
         <v>44706</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="46">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="47">
         <v>4</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6" t="s">
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35">
         <v>21</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B16" s="38">
         <v>44668</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="46">
         <v>3</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="47">
         <v>3</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>1</v>
       </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6" t="s">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="35">
         <v>21</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B17" s="38">
         <v>44705</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="46">
         <v>5</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="47">
         <v>5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35">
         <v>21</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B18" s="36">
         <v>45262</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="46">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="47">
         <v>3</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10">
-        <v>45232</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
       <c r="S18" s="6">
         <v>0</v>
       </c>
       <c r="T18" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35">
+        <v>21</v>
+      </c>
+      <c r="B19" s="36">
+        <v>45232</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="46">
+        <v>4</v>
+      </c>
+      <c r="E19" s="47">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35">
         <v>22</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B20" s="38">
         <v>44639</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="46">
         <v>5</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="47">
         <v>5</v>
       </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35">
         <v>22</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B21" s="38">
         <v>44639</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="46">
         <v>4</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="47">
         <v>4</v>
       </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="35">
         <v>32</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B22" s="36">
         <v>45048</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="46">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
         <v>1</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N22" s="6">
         <v>1</v>
       </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6" t="s">
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35">
         <v>44</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B23" s="36">
         <v>44661</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="46">
         <v>5</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="47">
         <v>5</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
         <v>1</v>
       </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
         <v>1</v>
       </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="35">
         <v>44</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B24" s="38">
         <v>44924</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="46">
         <v>5</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="47">
         <v>5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
         <v>1</v>
       </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
         <v>1</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S24" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35">
         <v>55</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B25" s="39">
         <v>44754</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="46">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>55</v>
-      </c>
-      <c r="B25" s="25">
-        <v>44941</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="E25" s="47">
         <v>2</v>
       </c>
       <c r="F25" s="6">
@@ -4093,128 +3559,128 @@
         <v>0</v>
       </c>
       <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="35">
+        <v>55</v>
+      </c>
+      <c r="B26" s="38">
+        <v>44941</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="46">
         <v>1</v>
       </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6" t="s">
+      <c r="E26" s="47">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
         <v>79</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B27" s="39">
         <v>44603</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="46">
         <v>5</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="47">
         <v>5</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="35">
         <v>79</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B28" s="39">
         <v>44603</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="46">
         <v>5</v>
       </c>
-      <c r="E27" s="6">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>214</v>
-      </c>
-      <c r="B28" s="25">
-        <v>44773</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="6">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="E28" s="47">
         <v>5</v>
       </c>
       <c r="F28" s="6">
@@ -4227,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
@@ -4257,24 +3723,27 @@
         <v>0</v>
       </c>
       <c r="S28" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="A29" s="35">
         <v>214</v>
       </c>
-      <c r="B29" s="10">
-        <v>44842</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="B29" s="38">
+        <v>44773</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="46">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
-        <v>4</v>
+      <c r="E29" s="47">
+        <v>5</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
@@ -4286,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="6">
         <v>0</v>
@@ -4318,25 +3787,22 @@
       <c r="S29" s="6">
         <v>1</v>
       </c>
-      <c r="T29" s="6" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+      <c r="A30" s="35">
         <v>214</v>
       </c>
-      <c r="B30" s="25">
-        <v>44789</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B30" s="36">
+        <v>44842</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="46">
         <v>5</v>
       </c>
-      <c r="E30" s="6">
-        <v>5</v>
+      <c r="E30" s="47">
+        <v>4</v>
       </c>
       <c r="F30" s="6">
         <v>1</v>
@@ -4354,219 +3820,277 @@
         <v>0</v>
       </c>
       <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
         <v>1</v>
       </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
       <c r="T30" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="35">
+        <v>214</v>
+      </c>
+      <c r="B31" s="38">
+        <v>44789</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="46">
+        <v>5</v>
+      </c>
+      <c r="E31" s="47">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="35">
         <v>218</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B32" s="38">
         <v>44759</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="46">
         <v>5</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="47">
         <v>4</v>
       </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
         <v>1</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J32" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
         <v>1</v>
       </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="36">
         <v>44745</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="46">
         <v>5</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="47">
         <v>5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32" s="6">
-        <v>0</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B34" s="36">
         <v>44745</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="46">
         <v>4</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="47">
         <v>4</v>
       </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
         <v>1</v>
       </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
-        <v>0</v>
-      </c>
-      <c r="T33" s="6" t="s">
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
@@ -4588,7 +4112,7 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
@@ -8428,8 +7952,630 @@
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
     </row>
+    <row r="1001" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1001" s="9"/>
+      <c r="B1001" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="13">
+        <v>35.421917808219177</v>
+      </c>
+      <c r="E2" s="13">
+        <v>70</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="15">
+        <v>50</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="15">
+        <v>20</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13">
+        <v>29.460273972602739</v>
+      </c>
+      <c r="E3" s="13">
+        <v>60</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="13">
+        <v>40.698630136986303</v>
+      </c>
+      <c r="E4" s="13">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="13">
+        <v>40.290410958904111</v>
+      </c>
+      <c r="E5" s="13">
+        <v>50</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13">
+        <v>35.07123287671233</v>
+      </c>
+      <c r="E6" s="13">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13">
+        <v>32.241095890410961</v>
+      </c>
+      <c r="E7" s="13">
+        <v>40</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="13">
+        <v>30.090410958904108</v>
+      </c>
+      <c r="E8" s="13">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="13">
+        <v>28.769863013698629</v>
+      </c>
+      <c r="E9" s="13">
+        <v>60</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13">
+        <v>27.353424657534248</v>
+      </c>
+      <c r="E10" s="13">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13">
+        <v>47.723287671232875</v>
+      </c>
+      <c r="E11" s="13">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13">
+        <v>34.175342465753424</v>
+      </c>
+      <c r="E12" s="13">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13">
+        <v>65.824657534246569</v>
+      </c>
+      <c r="E13" s="13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13">
+        <v>44.887671232876713</v>
+      </c>
+      <c r="E14" s="13">
+        <v>40</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13">
+        <v>48.753424657534246</v>
+      </c>
+      <c r="E15" s="13">
+        <v>40</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13034,11 +13180,15 @@
   </sheetPr>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="229" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
